--- a/uploadtemplate.xlsx
+++ b/uploadtemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyangliu/Desktop/NFSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F9F20BC-5567-FD43-AC81-71D5A4971C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90059937-4B9D-4D45-8046-B5106C28D5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>toolbats</t>
+  </si>
+  <si>
+    <t>testbot</t>
+  </si>
+  <si>
+    <t>no club</t>
   </si>
 </sst>
 </file>
@@ -347,7 +353,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -406,13 +412,21 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="1"/>
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3"/>
+      <c r="N2">
+        <v>9191</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>

--- a/uploadtemplate.xlsx
+++ b/uploadtemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyangliu/Desktop/NFSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90059937-4B9D-4D45-8046-B5106C28D5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB3723-D270-2A4C-8247-04C2C87AA234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -73,10 +73,13 @@
     <t>toolbats</t>
   </si>
   <si>
-    <t>testbot</t>
-  </si>
-  <si>
     <t>no club</t>
+  </si>
+  <si>
+    <t>testbot2</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -413,13 +416,17 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>

--- a/uploadtemplate.xlsx
+++ b/uploadtemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyangliu/Desktop/NFSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB3723-D270-2A4C-8247-04C2C87AA234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DCEB33-DEA6-724A-B98A-5A2F82582F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/uploadtemplate.xlsx
+++ b/uploadtemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyangliu/Desktop/NFSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DCEB33-DEA6-724A-B98A-5A2F82582F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B699A7-6698-5641-8E79-29AEDC654F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,10 +76,10 @@
     <t>no club</t>
   </si>
   <si>
-    <t>testbot2</t>
-  </si>
-  <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>testytest</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -416,16 +416,16 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/uploadtemplate.xlsx
+++ b/uploadtemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyangliu/Desktop/NFSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B699A7-6698-5641-8E79-29AEDC654F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7A6858-F253-BF43-8E5B-833FFE297A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -71,15 +71,6 @@
   </si>
   <si>
     <t>toolbats</t>
-  </si>
-  <si>
-    <t>no club</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>testytest</t>
   </si>
 </sst>
 </file>
@@ -356,7 +347,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -415,25 +406,14 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3"/>
-      <c r="N2">
-        <v>9191</v>
-      </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>

--- a/uploadtemplate.xlsx
+++ b/uploadtemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyangliu/Desktop/NFSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7A6858-F253-BF43-8E5B-833FFE297A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A977B2F6-35F9-404B-92A0-5E5294C3EDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
